--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value49.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value49.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6221134911172302</v>
+        <v>1.250616431236267</v>
       </c>
       <c r="B1">
-        <v>1.017050412024553</v>
+        <v>1.884700298309326</v>
       </c>
       <c r="C1">
-        <v>2.550093756915529</v>
+        <v>3.040507793426514</v>
       </c>
       <c r="D1">
-        <v>3.373250884662936</v>
+        <v>5.237596035003662</v>
       </c>
       <c r="E1">
-        <v>1.804681298694942</v>
+        <v>2.931501626968384</v>
       </c>
     </row>
   </sheetData>
